--- a/template.xlsx
+++ b/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="电源操作(BatteryAction)" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="309">
   <si>
     <t>Id
 序号</t>
@@ -50,1002 +50,1031 @@
 电源操作类型</t>
   </si>
   <si>
+    <t>RepeatTimes
+重复次数</t>
+  </si>
+  <si>
+    <t>CurveFile
+电压曲线文件</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>OperationActionType
+操作类型</t>
+  </si>
+  <si>
+    <t>Element
+安卓元素</t>
+  </si>
+  <si>
+    <t>SlideTimes
+滑动次数</t>
+  </si>
+  <si>
+    <t>RelayOperationType
+继电器操作类型</t>
+  </si>
+  <si>
+    <t>ChannelIndex
+继电器通道</t>
+  </si>
+  <si>
+    <t>DeviceTpeEnum
+屏幕类型</t>
+  </si>
+  <si>
+    <t>ScreenIndex
+屏幕序号</t>
+  </si>
+  <si>
+    <t>Points
+坐标点</t>
+  </si>
+  <si>
+    <t>ContinueTimes
+持续时间</t>
+  </si>
+  <si>
+    <t>Count
+截图张数</t>
+  </si>
+  <si>
+    <t>ImageName
+截图名称</t>
+  </si>
+  <si>
+    <t>IsArea
+是否区域截图</t>
+  </si>
+  <si>
+    <t>Signals
+信号名与值</t>
+  </si>
+  <si>
+    <t>Locators
+元素定位符</t>
+  </si>
+  <si>
+    <t>Params
+函数参数</t>
+  </si>
+  <si>
+    <t>MessageId
+信号ID</t>
+  </si>
+  <si>
+    <t>SignalName
+信号名</t>
+  </si>
+  <si>
+    <t>ExpectValue
+期望值</t>
+  </si>
+  <si>
+    <t>Exact
+是否精确对比</t>
+  </si>
+  <si>
+    <t>ElementCompareType
+元素对比类型</t>
+  </si>
+  <si>
+    <t>Timeout
+超时时间</t>
+  </si>
+  <si>
+    <t>CompareType
+图片对比方式</t>
+  </si>
+  <si>
+    <t>TemplateLight
+模板亮图</t>
+  </si>
+  <si>
+    <t>TemplateDark
+模板暗图</t>
+  </si>
+  <si>
+    <t>Positions
+比较区域</t>
+  </si>
+  <si>
+    <t>Similarity
+相似度</t>
+  </si>
+  <si>
+    <t>IsGray
+是否灰度对比</t>
+  </si>
+  <si>
+    <t>Threshold
+灰度二值化阈值</t>
+  </si>
+  <si>
+    <t>Origin
+原始信息</t>
+  </si>
+  <si>
+    <t>Target
+目标信息</t>
+  </si>
+  <si>
+    <t>TestCaseType
+测试用例类型</t>
+  </si>
+  <si>
+    <t>ModuleName
+模块名</t>
+  </si>
+  <si>
+    <t>PreConditionDescription
+前置条件描述</t>
+  </si>
+  <si>
+    <t>StepsDescription
+操作步骤描述</t>
+  </si>
+  <si>
+    <t>ExpectDescription
+期望结果描述</t>
+  </si>
+  <si>
+    <t>BatteryType
+电源类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT6831</t>
+  </si>
+  <si>
+    <t>设置电压</t>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KONSTANTER</t>
+  </si>
+  <si>
+    <t>设置电流</t>
+  </si>
+  <si>
+    <t>调节电压</t>
+  </si>
+  <si>
+    <t>电压曲线</t>
+  </si>
+  <si>
+    <t>d:\a.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>test9</t>
+  </si>
+  <si>
+    <t>test10</t>
+  </si>
+  <si>
+    <t>滑动</t>
+  </si>
+  <si>
+    <t>点击</t>
+  </si>
+  <si>
+    <t>长按</t>
+  </si>
+  <si>
+    <t>双击</t>
+  </si>
+  <si>
+    <t>上滑</t>
+  </si>
+  <si>
+    <t>下滑</t>
+  </si>
+  <si>
+    <t>左滑</t>
+  </si>
+  <si>
+    <t>右滑</t>
+  </si>
+  <si>
+    <t>开启</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>全开</t>
+  </si>
+  <si>
+    <t>全关</t>
+  </si>
+  <si>
+    <t>teset1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teset2</t>
+  </si>
+  <si>
+    <t>teset3</t>
+  </si>
+  <si>
+    <t>teset4</t>
+  </si>
+  <si>
+    <t>teset5</t>
+  </si>
+  <si>
+    <t>teset6</t>
+  </si>
+  <si>
+    <t>teset7</t>
+  </si>
+  <si>
+    <t>teset8</t>
+  </si>
+  <si>
+    <t>teset9</t>
+  </si>
+  <si>
+    <t>teset10</t>
+  </si>
+  <si>
+    <t>tttt1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tttt2</t>
+  </si>
+  <si>
+    <t>tttt3</t>
+  </si>
+  <si>
+    <t>tttt4</t>
+  </si>
+  <si>
+    <t>tttt5</t>
+  </si>
+  <si>
+    <t>tttt6</t>
+  </si>
+  <si>
+    <t>tttt7</t>
+  </si>
+  <si>
+    <t>tttt8</t>
+  </si>
+  <si>
+    <t>tttt9</t>
+  </si>
+  <si>
+    <t>tttt10</t>
+  </si>
+  <si>
+    <t>QNX</t>
+  </si>
+  <si>
+    <t>ANDROID</t>
+  </si>
+  <si>
+    <t>上滑到顶</t>
+  </si>
+  <si>
+    <t>下滑到底</t>
+  </si>
+  <si>
+    <t>左滑到头</t>
+  </si>
+  <si>
+    <t>右滑到头</t>
+  </si>
+  <si>
+    <t>teset11</t>
+  </si>
+  <si>
+    <t>teset12</t>
+  </si>
+  <si>
+    <t>tttt11</t>
+  </si>
+  <si>
+    <t>tttt12</t>
+  </si>
+  <si>
+    <t>12-15
+12-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tttt1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oooo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oooo2</t>
+  </si>
+  <si>
+    <t>oooo3</t>
+  </si>
+  <si>
+    <t>oooo4</t>
+  </si>
+  <si>
+    <t>oooo5</t>
+  </si>
+  <si>
+    <t>oooo6</t>
+  </si>
+  <si>
+    <t>oooo7</t>
+  </si>
+  <si>
+    <t>oooo8</t>
+  </si>
+  <si>
+    <t>oooo9</t>
+  </si>
+  <si>
+    <t>oooo10</t>
+  </si>
+  <si>
+    <t>test01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test02</t>
+  </si>
+  <si>
+    <t>test03</t>
+  </si>
+  <si>
+    <t>test04</t>
+  </si>
+  <si>
+    <t>test05</t>
+  </si>
+  <si>
+    <t>test06</t>
+  </si>
+  <si>
+    <t>test07</t>
+  </si>
+  <si>
+    <t>test08</t>
+  </si>
+  <si>
+    <t>test09</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=0x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b=0x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i=7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa=9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb=19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc=12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test11</t>
+  </si>
+  <si>
+    <t>kkk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkk2</t>
+  </si>
+  <si>
+    <t>kkk3</t>
+  </si>
+  <si>
+    <t>kkk4</t>
+  </si>
+  <si>
+    <t>kkk5</t>
+  </si>
+  <si>
+    <t>kkk6</t>
+  </si>
+  <si>
+    <t>kkk7</t>
+  </si>
+  <si>
+    <t>kkk8</t>
+  </si>
+  <si>
+    <t>kkk9</t>
+  </si>
+  <si>
+    <t>kkk10</t>
+  </si>
+  <si>
+    <t>kkk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkk11</t>
+  </si>
+  <si>
+    <t>text=c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id=a,resourceId=b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id=a,resourceId=b
+text=c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common2</t>
+  </si>
+  <si>
+    <t>common3</t>
+  </si>
+  <si>
+    <t>common4</t>
+  </si>
+  <si>
+    <t>common5</t>
+  </si>
+  <si>
+    <t>common6</t>
+  </si>
+  <si>
+    <t>common7</t>
+  </si>
+  <si>
+    <t>common8</t>
+  </si>
+  <si>
+    <t>common9</t>
+  </si>
+  <si>
+    <t>common10</t>
+  </si>
+  <si>
+    <t>a,b,c,d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x153</t>
+  </si>
+  <si>
+    <t>0x154</t>
+  </si>
+  <si>
+    <t>0x155</t>
+  </si>
+  <si>
+    <t>0x156</t>
+  </si>
+  <si>
+    <t>0x157</t>
+  </si>
+  <si>
+    <t>0x158</t>
+  </si>
+  <si>
+    <t>0x159</t>
+  </si>
+  <si>
+    <t>0x160</t>
+  </si>
+  <si>
+    <t>0x161</t>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppearCount
+出现次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comapre1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comapre2</t>
+  </si>
+  <si>
+    <t>comapre3</t>
+  </si>
+  <si>
+    <t>comapre4</t>
+  </si>
+  <si>
+    <t>comapre5</t>
+  </si>
+  <si>
+    <t>comapre6</t>
+  </si>
+  <si>
+    <t>comapre7</t>
+  </si>
+  <si>
+    <t>comapre8</t>
+  </si>
+  <si>
+    <t>comapre9</t>
+  </si>
+  <si>
+    <t>comapre10</t>
+  </si>
+  <si>
+    <t>存在</t>
+  </si>
+  <si>
+    <t>不存在</t>
+  </si>
+  <si>
+    <t>template_light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template_dark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2-3-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮图</t>
+  </si>
+  <si>
+    <t>暗图</t>
+  </si>
+  <si>
+    <t>闪烁图</t>
+  </si>
+  <si>
+    <t>compareaaaa1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compareaaaa2</t>
+  </si>
+  <si>
+    <t>compareaaaa3</t>
+  </si>
+  <si>
+    <t>compareaaaa4</t>
+  </si>
+  <si>
+    <t>compareaaaa5</t>
+  </si>
+  <si>
+    <t>compareaaaa6</t>
+  </si>
+  <si>
+    <t>compareaaaa7</t>
+  </si>
+  <si>
+    <t>compareaaaa8</t>
+  </si>
+  <si>
+    <t>compareaaaa9</t>
+  </si>
+  <si>
+    <t>compareaaaa10</t>
+  </si>
+  <si>
+    <t>info1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info2</t>
+  </si>
+  <si>
+    <t>info3</t>
+  </si>
+  <si>
+    <t>info4</t>
+  </si>
+  <si>
+    <t>info5</t>
+  </si>
+  <si>
+    <t>info6</t>
+  </si>
+  <si>
+    <t>info7</t>
+  </si>
+  <si>
+    <t>info8</t>
+  </si>
+  <si>
+    <t>info9</t>
+  </si>
+  <si>
+    <t>info10</t>
+  </si>
+  <si>
+    <t>infomation1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infomation2</t>
+  </si>
+  <si>
+    <t>infomation3</t>
+  </si>
+  <si>
+    <t>infomation4</t>
+  </si>
+  <si>
+    <t>infomation5</t>
+  </si>
+  <si>
+    <t>infomation6</t>
+  </si>
+  <si>
+    <t>infomation7</t>
+  </si>
+  <si>
+    <t>infomation8</t>
+  </si>
+  <si>
+    <t>infomation9</t>
+  </si>
+  <si>
+    <t>infomation10</t>
+  </si>
+  <si>
+    <t>kkk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementAttributes
+元素属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcase1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcase2</t>
+  </si>
+  <si>
+    <t>testcase3</t>
+  </si>
+  <si>
+    <t>testcase4</t>
+  </si>
+  <si>
+    <t>testcase5</t>
+  </si>
+  <si>
+    <t>testcase6</t>
+  </si>
+  <si>
+    <t>testcase7</t>
+  </si>
+  <si>
+    <t>testcase8</t>
+  </si>
+  <si>
+    <t>testcase9</t>
+  </si>
+  <si>
+    <t>testcase10</t>
+  </si>
+  <si>
+    <t>仪表</t>
+  </si>
+  <si>
+    <t>中控</t>
+  </si>
+  <si>
+    <t>空调屏</t>
+  </si>
+  <si>
+    <t>module1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module2</t>
+  </si>
+  <si>
+    <t>module3</t>
+  </si>
+  <si>
+    <t>module4</t>
+  </si>
+  <si>
+    <t>module5</t>
+  </si>
+  <si>
+    <t>module6</t>
+  </si>
+  <si>
+    <t>module7</t>
+  </si>
+  <si>
+    <t>module8</t>
+  </si>
+  <si>
+    <t>module9</t>
+  </si>
+  <si>
+    <t>module10</t>
+  </si>
+  <si>
+    <t>condition1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition2</t>
+  </si>
+  <si>
+    <t>condition3</t>
+  </si>
+  <si>
+    <t>condition4</t>
+  </si>
+  <si>
+    <t>condition5</t>
+  </si>
+  <si>
+    <t>condition6</t>
+  </si>
+  <si>
+    <t>condition7</t>
+  </si>
+  <si>
+    <t>condition8</t>
+  </si>
+  <si>
+    <t>condition9</t>
+  </si>
+  <si>
+    <t>condition10</t>
+  </si>
+  <si>
+    <t>steps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steps2</t>
+  </si>
+  <si>
+    <t>steps3</t>
+  </si>
+  <si>
+    <t>steps4</t>
+  </si>
+  <si>
+    <t>steps5</t>
+  </si>
+  <si>
+    <t>steps6</t>
+  </si>
+  <si>
+    <t>steps7</t>
+  </si>
+  <si>
+    <t>steps8</t>
+  </si>
+  <si>
+    <t>steps9</t>
+  </si>
+  <si>
+    <t>steps10</t>
+  </si>
+  <si>
+    <t>expect1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect2</t>
+  </si>
+  <si>
+    <t>expect3</t>
+  </si>
+  <si>
+    <t>expect4</t>
+  </si>
+  <si>
+    <t>expect5</t>
+  </si>
+  <si>
+    <t>expect6</t>
+  </si>
+  <si>
+    <t>expect7</t>
+  </si>
+  <si>
+    <t>expect8</t>
+  </si>
+  <si>
+    <t>expect9</t>
+  </si>
+  <si>
+    <t>expect10</t>
+  </si>
+  <si>
+    <t>infomation1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECKABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENABLED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOCUSABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOCUSED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCROLLABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAYED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECTED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3-45-67
+34-24-54-78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Values
 电源操作值</t>
-  </si>
-  <si>
-    <t>RepeatTimes
-重复次数</t>
-  </si>
-  <si>
-    <t>CurveFile
-电压曲线文件</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>OperationActionType
-操作类型</t>
-  </si>
-  <si>
-    <t>Element
-安卓元素</t>
-  </si>
-  <si>
-    <t>SlideTimes
-滑动次数</t>
-  </si>
-  <si>
-    <t>RelayOperationType
-继电器操作类型</t>
-  </si>
-  <si>
-    <t>ChannelIndex
-继电器通道</t>
-  </si>
-  <si>
-    <t>DeviceTpeEnum
-屏幕类型</t>
-  </si>
-  <si>
-    <t>ScreenIndex
-屏幕序号</t>
-  </si>
-  <si>
-    <t>Points
-坐标点</t>
-  </si>
-  <si>
-    <t>ContinueTimes
-持续时间</t>
-  </si>
-  <si>
-    <t>Count
-截图张数</t>
-  </si>
-  <si>
-    <t>ImageName
-截图名称</t>
-  </si>
-  <si>
-    <t>IsArea
-是否区域截图</t>
-  </si>
-  <si>
-    <t>Signals
-信号名与值</t>
-  </si>
-  <si>
-    <t>Locators
-元素定位符</t>
-  </si>
-  <si>
-    <t>Params
-函数参数</t>
-  </si>
-  <si>
-    <t>MessageId
-信号ID</t>
-  </si>
-  <si>
-    <t>SignalName
-信号名</t>
-  </si>
-  <si>
-    <t>ExpectValue
-期望值</t>
-  </si>
-  <si>
-    <t>Exact
-是否精确对比</t>
-  </si>
-  <si>
-    <t>ElementCompareType
-元素对比类型</t>
-  </si>
-  <si>
-    <t>Timeout
-超时时间</t>
-  </si>
-  <si>
-    <t>CompareType
-图片对比方式</t>
-  </si>
-  <si>
-    <t>TemplateLight
-模板亮图</t>
-  </si>
-  <si>
-    <t>TemplateDark
-模板暗图</t>
-  </si>
-  <si>
-    <t>Positions
-比较区域</t>
-  </si>
-  <si>
-    <t>Similarity
-相似度</t>
-  </si>
-  <si>
-    <t>IsGray
-是否灰度对比</t>
-  </si>
-  <si>
-    <t>Threshold
-灰度二值化阈值</t>
-  </si>
-  <si>
-    <t>Origin
-原始信息</t>
-  </si>
-  <si>
-    <t>Target
-目标信息</t>
-  </si>
-  <si>
-    <t>TestCaseType
-测试用例类型</t>
-  </si>
-  <si>
-    <t>ModuleName
-模块名</t>
-  </si>
-  <si>
-    <t>PreConditionDescription
-前置条件描述</t>
-  </si>
-  <si>
-    <t>StepsDescription
-操作步骤描述</t>
-  </si>
-  <si>
-    <t>ExpectDescription
-期望结果描述</t>
-  </si>
-  <si>
-    <t>BatteryType
-电源类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT6831</t>
-  </si>
-  <si>
-    <t>设置电压</t>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KONSTANTER</t>
-  </si>
-  <si>
-    <t>设置电流</t>
-  </si>
-  <si>
-    <t>调节电压</t>
-  </si>
-  <si>
-    <t>电压曲线</t>
-  </si>
-  <si>
-    <t>d:\a.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>test6</t>
-  </si>
-  <si>
-    <t>test7</t>
-  </si>
-  <si>
-    <t>test8</t>
-  </si>
-  <si>
-    <t>test9</t>
-  </si>
-  <si>
-    <t>test10</t>
-  </si>
-  <si>
-    <t>滑动</t>
-  </si>
-  <si>
-    <t>点击</t>
-  </si>
-  <si>
-    <t>长按</t>
-  </si>
-  <si>
-    <t>双击</t>
-  </si>
-  <si>
-    <t>上滑</t>
-  </si>
-  <si>
-    <t>下滑</t>
-  </si>
-  <si>
-    <t>左滑</t>
-  </si>
-  <si>
-    <t>右滑</t>
-  </si>
-  <si>
-    <t>开启</t>
-  </si>
-  <si>
-    <t>关闭</t>
-  </si>
-  <si>
-    <t>全开</t>
-  </si>
-  <si>
-    <t>全关</t>
-  </si>
-  <si>
-    <t>teset1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teset2</t>
-  </si>
-  <si>
-    <t>teset3</t>
-  </si>
-  <si>
-    <t>teset4</t>
-  </si>
-  <si>
-    <t>teset5</t>
-  </si>
-  <si>
-    <t>teset6</t>
-  </si>
-  <si>
-    <t>teset7</t>
-  </si>
-  <si>
-    <t>teset8</t>
-  </si>
-  <si>
-    <t>teset9</t>
-  </si>
-  <si>
-    <t>teset10</t>
-  </si>
-  <si>
-    <t>tttt1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tttt2</t>
-  </si>
-  <si>
-    <t>tttt3</t>
-  </si>
-  <si>
-    <t>tttt4</t>
-  </si>
-  <si>
-    <t>tttt5</t>
-  </si>
-  <si>
-    <t>tttt6</t>
-  </si>
-  <si>
-    <t>tttt7</t>
-  </si>
-  <si>
-    <t>tttt8</t>
-  </si>
-  <si>
-    <t>tttt9</t>
-  </si>
-  <si>
-    <t>tttt10</t>
-  </si>
-  <si>
-    <t>QNX</t>
-  </si>
-  <si>
-    <t>ANDROID</t>
-  </si>
-  <si>
-    <t>上滑到顶</t>
-  </si>
-  <si>
-    <t>下滑到底</t>
-  </si>
-  <si>
-    <t>左滑到头</t>
-  </si>
-  <si>
-    <t>右滑到头</t>
-  </si>
-  <si>
-    <t>teset11</t>
-  </si>
-  <si>
-    <t>teset12</t>
-  </si>
-  <si>
-    <t>tttt11</t>
-  </si>
-  <si>
-    <t>tttt12</t>
-  </si>
-  <si>
-    <t>12-15
-12-18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-152</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tttt1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oooo1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oooo2</t>
-  </si>
-  <si>
-    <t>oooo3</t>
-  </si>
-  <si>
-    <t>oooo4</t>
-  </si>
-  <si>
-    <t>oooo5</t>
-  </si>
-  <si>
-    <t>oooo6</t>
-  </si>
-  <si>
-    <t>oooo7</t>
-  </si>
-  <si>
-    <t>oooo8</t>
-  </si>
-  <si>
-    <t>oooo9</t>
-  </si>
-  <si>
-    <t>oooo10</t>
-  </si>
-  <si>
-    <t>test01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test02</t>
-  </si>
-  <si>
-    <t>test03</t>
-  </si>
-  <si>
-    <t>test04</t>
-  </si>
-  <si>
-    <t>test05</t>
-  </si>
-  <si>
-    <t>test06</t>
-  </si>
-  <si>
-    <t>test07</t>
-  </si>
-  <si>
-    <t>test08</t>
-  </si>
-  <si>
-    <t>test09</t>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a=0x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b=0x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d=4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e=5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h=6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i=7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa=9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb=19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc=12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test11</t>
-  </si>
-  <si>
-    <t>kkk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kkk2</t>
-  </si>
-  <si>
-    <t>kkk3</t>
-  </si>
-  <si>
-    <t>kkk4</t>
-  </si>
-  <si>
-    <t>kkk5</t>
-  </si>
-  <si>
-    <t>kkk6</t>
-  </si>
-  <si>
-    <t>kkk7</t>
-  </si>
-  <si>
-    <t>kkk8</t>
-  </si>
-  <si>
-    <t>kkk9</t>
-  </si>
-  <si>
-    <t>kkk10</t>
-  </si>
-  <si>
-    <t>kkk2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kkk11</t>
-  </si>
-  <si>
-    <t>text=c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id=a,resourceId=b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id=a,resourceId=b
-text=c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common2</t>
-  </si>
-  <si>
-    <t>common3</t>
-  </si>
-  <si>
-    <t>common4</t>
-  </si>
-  <si>
-    <t>common5</t>
-  </si>
-  <si>
-    <t>common6</t>
-  </si>
-  <si>
-    <t>common7</t>
-  </si>
-  <si>
-    <t>common8</t>
-  </si>
-  <si>
-    <t>common9</t>
-  </si>
-  <si>
-    <t>common10</t>
-  </si>
-  <si>
-    <t>a,b,c,d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x152</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x153</t>
-  </si>
-  <si>
-    <t>0x154</t>
-  </si>
-  <si>
-    <t>0x155</t>
-  </si>
-  <si>
-    <t>0x156</t>
-  </si>
-  <si>
-    <t>0x157</t>
-  </si>
-  <si>
-    <t>0x158</t>
-  </si>
-  <si>
-    <t>0x159</t>
-  </si>
-  <si>
-    <t>0x160</t>
-  </si>
-  <si>
-    <t>0x161</t>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iii</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jjj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kkk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppearCount
-出现次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comapre1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comapre2</t>
-  </si>
-  <si>
-    <t>comapre3</t>
-  </si>
-  <si>
-    <t>comapre4</t>
-  </si>
-  <si>
-    <t>comapre5</t>
-  </si>
-  <si>
-    <t>comapre6</t>
-  </si>
-  <si>
-    <t>comapre7</t>
-  </si>
-  <si>
-    <t>comapre8</t>
-  </si>
-  <si>
-    <t>comapre9</t>
-  </si>
-  <si>
-    <t>comapre10</t>
-  </si>
-  <si>
-    <t>存在</t>
-  </si>
-  <si>
-    <t>不存在</t>
-  </si>
-  <si>
-    <t>template_light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template_dark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2-3-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-3-45-67
-34-24-54-78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen_shot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亮图</t>
-  </si>
-  <si>
-    <t>暗图</t>
-  </si>
-  <si>
-    <t>闪烁图</t>
-  </si>
-  <si>
-    <t>compareaaaa1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>compareaaaa2</t>
-  </si>
-  <si>
-    <t>compareaaaa3</t>
-  </si>
-  <si>
-    <t>compareaaaa4</t>
-  </si>
-  <si>
-    <t>compareaaaa5</t>
-  </si>
-  <si>
-    <t>compareaaaa6</t>
-  </si>
-  <si>
-    <t>compareaaaa7</t>
-  </si>
-  <si>
-    <t>compareaaaa8</t>
-  </si>
-  <si>
-    <t>compareaaaa9</t>
-  </si>
-  <si>
-    <t>compareaaaa10</t>
-  </si>
-  <si>
-    <t>info1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>info2</t>
-  </si>
-  <si>
-    <t>info3</t>
-  </si>
-  <si>
-    <t>info4</t>
-  </si>
-  <si>
-    <t>info5</t>
-  </si>
-  <si>
-    <t>info6</t>
-  </si>
-  <si>
-    <t>info7</t>
-  </si>
-  <si>
-    <t>info8</t>
-  </si>
-  <si>
-    <t>info9</t>
-  </si>
-  <si>
-    <t>info10</t>
-  </si>
-  <si>
-    <t>infomation1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infomation2</t>
-  </si>
-  <si>
-    <t>infomation3</t>
-  </si>
-  <si>
-    <t>infomation4</t>
-  </si>
-  <si>
-    <t>infomation5</t>
-  </si>
-  <si>
-    <t>infomation6</t>
-  </si>
-  <si>
-    <t>infomation7</t>
-  </si>
-  <si>
-    <t>infomation8</t>
-  </si>
-  <si>
-    <t>infomation9</t>
-  </si>
-  <si>
-    <t>infomation10</t>
-  </si>
-  <si>
-    <t>kkk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementAttributes
-元素属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcase1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcase2</t>
-  </si>
-  <si>
-    <t>testcase3</t>
-  </si>
-  <si>
-    <t>testcase4</t>
-  </si>
-  <si>
-    <t>testcase5</t>
-  </si>
-  <si>
-    <t>testcase6</t>
-  </si>
-  <si>
-    <t>testcase7</t>
-  </si>
-  <si>
-    <t>testcase8</t>
-  </si>
-  <si>
-    <t>testcase9</t>
-  </si>
-  <si>
-    <t>testcase10</t>
-  </si>
-  <si>
-    <t>仪表</t>
-  </si>
-  <si>
-    <t>中控</t>
-  </si>
-  <si>
-    <t>空调屏</t>
-  </si>
-  <si>
-    <t>module1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module2</t>
-  </si>
-  <si>
-    <t>module3</t>
-  </si>
-  <si>
-    <t>module4</t>
-  </si>
-  <si>
-    <t>module5</t>
-  </si>
-  <si>
-    <t>module6</t>
-  </si>
-  <si>
-    <t>module7</t>
-  </si>
-  <si>
-    <t>module8</t>
-  </si>
-  <si>
-    <t>module9</t>
-  </si>
-  <si>
-    <t>module10</t>
-  </si>
-  <si>
-    <t>condition1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition2</t>
-  </si>
-  <si>
-    <t>condition3</t>
-  </si>
-  <si>
-    <t>condition4</t>
-  </si>
-  <si>
-    <t>condition5</t>
-  </si>
-  <si>
-    <t>condition6</t>
-  </si>
-  <si>
-    <t>condition7</t>
-  </si>
-  <si>
-    <t>condition8</t>
-  </si>
-  <si>
-    <t>condition9</t>
-  </si>
-  <si>
-    <t>condition10</t>
-  </si>
-  <si>
-    <t>steps1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>steps2</t>
-  </si>
-  <si>
-    <t>steps3</t>
-  </si>
-  <si>
-    <t>steps4</t>
-  </si>
-  <si>
-    <t>steps5</t>
-  </si>
-  <si>
-    <t>steps6</t>
-  </si>
-  <si>
-    <t>steps7</t>
-  </si>
-  <si>
-    <t>steps8</t>
-  </si>
-  <si>
-    <t>steps9</t>
-  </si>
-  <si>
-    <t>steps10</t>
-  </si>
-  <si>
-    <t>expect1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect2</t>
-  </si>
-  <si>
-    <t>expect3</t>
-  </si>
-  <si>
-    <t>expect4</t>
-  </si>
-  <si>
-    <t>expect5</t>
-  </si>
-  <si>
-    <t>expect6</t>
-  </si>
-  <si>
-    <t>expect7</t>
-  </si>
-  <si>
-    <t>expect8</t>
-  </si>
-  <si>
-    <t>expect9</t>
-  </si>
-  <si>
-    <t>expect10</t>
-  </si>
-  <si>
-    <t>infomation1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHECKABLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1054,35 +1083,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ENABLED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOCUSABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOCUSED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCROLLABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LONG_CLICKABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISPLAYED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECTED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1433,7 +1434,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1459,19 +1460,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1479,16 +1480,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F2" s="1">
         <v>12</v>
@@ -1497,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1505,16 +1506,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F3" s="1">
         <v>13</v>
@@ -1523,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1531,16 +1532,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1">
         <v>14</v>
@@ -1549,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1557,23 +1558,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1581,16 +1582,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="1">
         <v>14</v>
@@ -1599,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1607,16 +1608,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1">
         <v>14</v>
@@ -1625,7 +1626,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1633,16 +1634,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1">
         <v>14</v>
@@ -1651,7 +1652,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1659,16 +1660,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1">
         <v>14</v>
@@ -1677,7 +1678,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1685,16 +1686,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1">
         <v>14</v>
@@ -1703,7 +1704,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1711,16 +1712,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="1">
         <v>14</v>
@@ -1729,7 +1730,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1775,13 +1776,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1789,16 +1790,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1809,16 +1810,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
@@ -1829,16 +1830,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -1849,16 +1850,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -1869,16 +1870,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -1889,16 +1890,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -1909,16 +1910,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -1929,16 +1930,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -1949,16 +1950,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -1969,16 +1970,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -2000,7 +2001,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2028,28 +2029,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2057,31 +2058,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="1">
         <v>99</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K2" s="1">
         <v>240</v>
@@ -2092,31 +2093,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>206</v>
+        <v>305</v>
       </c>
       <c r="I3" s="1">
         <v>90</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K3" s="1">
         <v>240</v>
@@ -2127,31 +2128,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>206</v>
+        <v>305</v>
       </c>
       <c r="I4" s="1">
         <v>90</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K4" s="1">
         <v>240</v>
@@ -2162,31 +2163,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>206</v>
+        <v>305</v>
       </c>
       <c r="I5" s="1">
         <v>90</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K5" s="1">
         <v>240</v>
@@ -2197,31 +2198,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>206</v>
+        <v>305</v>
       </c>
       <c r="I6" s="1">
         <v>90</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K6" s="1">
         <v>240</v>
@@ -2232,31 +2233,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>206</v>
+        <v>305</v>
       </c>
       <c r="I7" s="1">
         <v>90</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K7" s="1">
         <v>240</v>
@@ -2267,31 +2268,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>206</v>
+        <v>305</v>
       </c>
       <c r="I8" s="1">
         <v>90</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K8" s="1">
         <v>240</v>
@@ -2302,31 +2303,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>206</v>
+        <v>305</v>
       </c>
       <c r="I9" s="1">
         <v>90</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K9" s="1">
         <v>240</v>
@@ -2337,31 +2338,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>206</v>
+        <v>305</v>
       </c>
       <c r="I10" s="1">
         <v>90</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K10" s="1">
         <v>240</v>
@@ -2372,31 +2373,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>206</v>
+        <v>305</v>
       </c>
       <c r="I11" s="1">
         <v>90</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K11" s="1">
         <v>240</v>
@@ -2418,7 +2419,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2440,10 +2441,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2451,16 +2452,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2468,16 +2469,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2485,16 +2486,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2502,16 +2503,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2519,16 +2520,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2536,16 +2537,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2553,16 +2554,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2570,16 +2571,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2587,16 +2588,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2604,16 +2605,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -2627,7 +2628,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2650,10 +2651,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2661,16 +2662,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -2678,16 +2679,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2695,16 +2696,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2712,16 +2713,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2729,16 +2730,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2746,16 +2747,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2763,16 +2764,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2780,16 +2781,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2797,16 +2798,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2814,16 +2815,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2862,19 +2863,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2882,25 +2883,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2908,25 +2909,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2934,25 +2935,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2960,25 +2961,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2986,25 +2987,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3012,25 +3013,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3038,25 +3039,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3064,25 +3065,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3090,25 +3091,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3116,25 +3117,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -3176,13 +3177,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3190,16 +3191,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -3210,16 +3211,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -3230,16 +3231,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -3250,16 +3251,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -3270,16 +3271,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -3290,16 +3291,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -3310,16 +3311,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -3330,16 +3331,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F9" s="1">
         <v>8</v>
@@ -3384,10 +3385,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3395,13 +3396,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -3412,13 +3413,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -3429,13 +3430,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -3446,13 +3447,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -3463,13 +3464,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -3480,13 +3481,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -3497,13 +3498,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -3514,13 +3515,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -3531,13 +3532,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -3548,13 +3549,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
@@ -3602,19 +3603,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -3622,22 +3623,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -3648,22 +3649,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
@@ -3674,22 +3675,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H4" s="1">
         <v>0.5</v>
@@ -3700,22 +3701,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H5" s="1">
         <v>0.5</v>
@@ -3726,22 +3727,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H6" s="1">
         <v>0.5</v>
@@ -3752,22 +3753,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H7" s="1">
         <v>0.5</v>
@@ -3778,22 +3779,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H8" s="1">
         <v>0.5</v>
@@ -3804,22 +3805,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H9" s="1">
         <v>0.5</v>
@@ -3830,22 +3831,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" s="1">
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H10" s="1">
         <v>0.5</v>
@@ -3856,22 +3857,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H11" s="1">
         <v>0.5</v>
@@ -3882,22 +3883,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="1">
         <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H12" s="1">
         <v>0.5</v>
@@ -3908,22 +3909,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" s="1">
         <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
@@ -3972,16 +3973,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3989,22 +3990,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4012,22 +4013,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4035,22 +4036,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4058,22 +4059,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4081,22 +4082,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4104,22 +4105,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4127,22 +4128,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4150,22 +4151,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="1">
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4173,22 +4174,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4196,22 +4197,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4252,7 +4253,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4260,13 +4261,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4274,13 +4275,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4288,13 +4289,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4302,13 +4303,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4316,13 +4317,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4330,13 +4331,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4344,13 +4345,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4358,13 +4359,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4372,13 +4373,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4386,13 +4387,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4428,7 +4429,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4436,13 +4437,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4450,13 +4451,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4464,13 +4465,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4478,13 +4479,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4492,13 +4493,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4506,13 +4507,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4520,13 +4521,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4534,13 +4535,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4548,13 +4549,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4562,13 +4563,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4604,7 +4605,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4612,13 +4613,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4626,13 +4627,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4640,13 +4641,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4654,13 +4655,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4668,13 +4669,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4682,13 +4683,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4696,13 +4697,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4710,13 +4711,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4724,13 +4725,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4738,13 +4739,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4782,19 +4783,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -4802,16 +4803,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -4820,7 +4821,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -4828,16 +4829,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -4846,7 +4847,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -4854,16 +4855,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -4872,7 +4873,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -4880,16 +4881,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -4898,7 +4899,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -4906,16 +4907,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -4924,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -4932,16 +4933,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -4950,7 +4951,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -4958,16 +4959,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -4976,7 +4977,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -4984,16 +4985,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -5002,7 +5003,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5010,16 +5011,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -5028,7 +5029,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -5036,16 +5037,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -5054,7 +5055,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="电源操作(BatteryAction)" sheetId="1" r:id="rId1"/>
@@ -89,1001 +89,1005 @@
 屏幕序号</t>
   </si>
   <si>
+    <t>ContinueTimes
+持续时间</t>
+  </si>
+  <si>
+    <t>Count
+截图张数</t>
+  </si>
+  <si>
+    <t>ImageName
+截图名称</t>
+  </si>
+  <si>
+    <t>IsArea
+是否区域截图</t>
+  </si>
+  <si>
+    <t>Signals
+信号名与值</t>
+  </si>
+  <si>
+    <t>Locators
+元素定位符</t>
+  </si>
+  <si>
+    <t>Params
+函数参数</t>
+  </si>
+  <si>
+    <t>MessageId
+信号ID</t>
+  </si>
+  <si>
+    <t>ExpectValue
+期望值</t>
+  </si>
+  <si>
+    <t>Exact
+是否精确对比</t>
+  </si>
+  <si>
+    <t>ElementCompareType
+元素对比类型</t>
+  </si>
+  <si>
+    <t>Timeout
+超时时间</t>
+  </si>
+  <si>
+    <t>CompareType
+图片对比方式</t>
+  </si>
+  <si>
+    <t>TemplateLight
+模板亮图</t>
+  </si>
+  <si>
+    <t>TemplateDark
+模板暗图</t>
+  </si>
+  <si>
+    <t>IsGray
+是否灰度对比</t>
+  </si>
+  <si>
+    <t>Threshold
+灰度二值化阈值</t>
+  </si>
+  <si>
+    <t>Origin
+原始信息</t>
+  </si>
+  <si>
+    <t>Target
+目标信息</t>
+  </si>
+  <si>
+    <t>TestCaseType
+测试用例类型</t>
+  </si>
+  <si>
+    <t>ModuleName
+模块名</t>
+  </si>
+  <si>
+    <t>PreConditionDescription
+前置条件描述</t>
+  </si>
+  <si>
+    <t>StepsDescription
+操作步骤描述</t>
+  </si>
+  <si>
+    <t>ExpectDescription
+期望结果描述</t>
+  </si>
+  <si>
+    <t>BatteryType
+电源类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT6831</t>
+  </si>
+  <si>
+    <t>设置电压</t>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KONSTANTER</t>
+  </si>
+  <si>
+    <t>设置电流</t>
+  </si>
+  <si>
+    <t>调节电压</t>
+  </si>
+  <si>
+    <t>电压曲线</t>
+  </si>
+  <si>
+    <t>d:\a.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>test9</t>
+  </si>
+  <si>
+    <t>test10</t>
+  </si>
+  <si>
+    <t>滑动</t>
+  </si>
+  <si>
+    <t>点击</t>
+  </si>
+  <si>
+    <t>长按</t>
+  </si>
+  <si>
+    <t>双击</t>
+  </si>
+  <si>
+    <t>上滑</t>
+  </si>
+  <si>
+    <t>下滑</t>
+  </si>
+  <si>
+    <t>左滑</t>
+  </si>
+  <si>
+    <t>右滑</t>
+  </si>
+  <si>
+    <t>开启</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>全开</t>
+  </si>
+  <si>
+    <t>全关</t>
+  </si>
+  <si>
+    <t>teset1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teset2</t>
+  </si>
+  <si>
+    <t>teset3</t>
+  </si>
+  <si>
+    <t>teset4</t>
+  </si>
+  <si>
+    <t>teset5</t>
+  </si>
+  <si>
+    <t>teset6</t>
+  </si>
+  <si>
+    <t>teset7</t>
+  </si>
+  <si>
+    <t>teset8</t>
+  </si>
+  <si>
+    <t>teset9</t>
+  </si>
+  <si>
+    <t>teset10</t>
+  </si>
+  <si>
+    <t>tttt1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tttt2</t>
+  </si>
+  <si>
+    <t>tttt3</t>
+  </si>
+  <si>
+    <t>tttt4</t>
+  </si>
+  <si>
+    <t>tttt5</t>
+  </si>
+  <si>
+    <t>tttt6</t>
+  </si>
+  <si>
+    <t>tttt7</t>
+  </si>
+  <si>
+    <t>tttt8</t>
+  </si>
+  <si>
+    <t>tttt9</t>
+  </si>
+  <si>
+    <t>tttt10</t>
+  </si>
+  <si>
+    <t>QNX</t>
+  </si>
+  <si>
+    <t>ANDROID</t>
+  </si>
+  <si>
+    <t>上滑到顶</t>
+  </si>
+  <si>
+    <t>下滑到底</t>
+  </si>
+  <si>
+    <t>左滑到头</t>
+  </si>
+  <si>
+    <t>右滑到头</t>
+  </si>
+  <si>
+    <t>teset11</t>
+  </si>
+  <si>
+    <t>teset12</t>
+  </si>
+  <si>
+    <t>tttt11</t>
+  </si>
+  <si>
+    <t>tttt12</t>
+  </si>
+  <si>
+    <t>12-15
+12-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tttt1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oooo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oooo2</t>
+  </si>
+  <si>
+    <t>oooo3</t>
+  </si>
+  <si>
+    <t>oooo4</t>
+  </si>
+  <si>
+    <t>oooo5</t>
+  </si>
+  <si>
+    <t>oooo6</t>
+  </si>
+  <si>
+    <t>oooo7</t>
+  </si>
+  <si>
+    <t>oooo8</t>
+  </si>
+  <si>
+    <t>oooo9</t>
+  </si>
+  <si>
+    <t>oooo10</t>
+  </si>
+  <si>
+    <t>test01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test02</t>
+  </si>
+  <si>
+    <t>test03</t>
+  </si>
+  <si>
+    <t>test04</t>
+  </si>
+  <si>
+    <t>test05</t>
+  </si>
+  <si>
+    <t>test06</t>
+  </si>
+  <si>
+    <t>test07</t>
+  </si>
+  <si>
+    <t>test08</t>
+  </si>
+  <si>
+    <t>test09</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=0x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b=0x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i=7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa=9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb=19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc=12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test11</t>
+  </si>
+  <si>
+    <t>kkk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkk2</t>
+  </si>
+  <si>
+    <t>kkk3</t>
+  </si>
+  <si>
+    <t>kkk4</t>
+  </si>
+  <si>
+    <t>kkk5</t>
+  </si>
+  <si>
+    <t>kkk6</t>
+  </si>
+  <si>
+    <t>kkk7</t>
+  </si>
+  <si>
+    <t>kkk8</t>
+  </si>
+  <si>
+    <t>kkk9</t>
+  </si>
+  <si>
+    <t>kkk10</t>
+  </si>
+  <si>
+    <t>kkk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkk11</t>
+  </si>
+  <si>
+    <t>text=c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id=a,resourceId=b
+text=c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common2</t>
+  </si>
+  <si>
+    <t>common3</t>
+  </si>
+  <si>
+    <t>common4</t>
+  </si>
+  <si>
+    <t>common5</t>
+  </si>
+  <si>
+    <t>common6</t>
+  </si>
+  <si>
+    <t>common7</t>
+  </si>
+  <si>
+    <t>common8</t>
+  </si>
+  <si>
+    <t>common9</t>
+  </si>
+  <si>
+    <t>common10</t>
+  </si>
+  <si>
+    <t>a,b,c,d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x153</t>
+  </si>
+  <si>
+    <t>0x154</t>
+  </si>
+  <si>
+    <t>0x155</t>
+  </si>
+  <si>
+    <t>0x156</t>
+  </si>
+  <si>
+    <t>0x157</t>
+  </si>
+  <si>
+    <t>0x158</t>
+  </si>
+  <si>
+    <t>0x159</t>
+  </si>
+  <si>
+    <t>0x160</t>
+  </si>
+  <si>
+    <t>0x161</t>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppearCount
+出现次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comapre1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comapre2</t>
+  </si>
+  <si>
+    <t>comapre3</t>
+  </si>
+  <si>
+    <t>comapre4</t>
+  </si>
+  <si>
+    <t>comapre5</t>
+  </si>
+  <si>
+    <t>comapre6</t>
+  </si>
+  <si>
+    <t>comapre7</t>
+  </si>
+  <si>
+    <t>comapre8</t>
+  </si>
+  <si>
+    <t>comapre9</t>
+  </si>
+  <si>
+    <t>comapre10</t>
+  </si>
+  <si>
+    <t>存在</t>
+  </si>
+  <si>
+    <t>不存在</t>
+  </si>
+  <si>
+    <t>template_light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template_dark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2-3-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮图</t>
+  </si>
+  <si>
+    <t>暗图</t>
+  </si>
+  <si>
+    <t>闪烁图</t>
+  </si>
+  <si>
+    <t>compareaaaa1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compareaaaa2</t>
+  </si>
+  <si>
+    <t>compareaaaa3</t>
+  </si>
+  <si>
+    <t>compareaaaa4</t>
+  </si>
+  <si>
+    <t>compareaaaa5</t>
+  </si>
+  <si>
+    <t>compareaaaa6</t>
+  </si>
+  <si>
+    <t>compareaaaa7</t>
+  </si>
+  <si>
+    <t>compareaaaa8</t>
+  </si>
+  <si>
+    <t>compareaaaa9</t>
+  </si>
+  <si>
+    <t>compareaaaa10</t>
+  </si>
+  <si>
+    <t>info1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info2</t>
+  </si>
+  <si>
+    <t>info3</t>
+  </si>
+  <si>
+    <t>info4</t>
+  </si>
+  <si>
+    <t>info5</t>
+  </si>
+  <si>
+    <t>info6</t>
+  </si>
+  <si>
+    <t>info7</t>
+  </si>
+  <si>
+    <t>info8</t>
+  </si>
+  <si>
+    <t>info9</t>
+  </si>
+  <si>
+    <t>info10</t>
+  </si>
+  <si>
+    <t>infomation1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infomation2</t>
+  </si>
+  <si>
+    <t>infomation3</t>
+  </si>
+  <si>
+    <t>infomation4</t>
+  </si>
+  <si>
+    <t>infomation5</t>
+  </si>
+  <si>
+    <t>infomation6</t>
+  </si>
+  <si>
+    <t>infomation7</t>
+  </si>
+  <si>
+    <t>infomation8</t>
+  </si>
+  <si>
+    <t>infomation9</t>
+  </si>
+  <si>
+    <t>infomation10</t>
+  </si>
+  <si>
+    <t>kkk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementAttributes
+元素属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcase1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcase2</t>
+  </si>
+  <si>
+    <t>testcase3</t>
+  </si>
+  <si>
+    <t>testcase4</t>
+  </si>
+  <si>
+    <t>testcase5</t>
+  </si>
+  <si>
+    <t>testcase6</t>
+  </si>
+  <si>
+    <t>testcase7</t>
+  </si>
+  <si>
+    <t>testcase8</t>
+  </si>
+  <si>
+    <t>testcase9</t>
+  </si>
+  <si>
+    <t>testcase10</t>
+  </si>
+  <si>
+    <t>仪表</t>
+  </si>
+  <si>
+    <t>中控</t>
+  </si>
+  <si>
+    <t>空调屏</t>
+  </si>
+  <si>
+    <t>module1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module2</t>
+  </si>
+  <si>
+    <t>module3</t>
+  </si>
+  <si>
+    <t>module4</t>
+  </si>
+  <si>
+    <t>module5</t>
+  </si>
+  <si>
+    <t>module6</t>
+  </si>
+  <si>
+    <t>module7</t>
+  </si>
+  <si>
+    <t>module8</t>
+  </si>
+  <si>
+    <t>module9</t>
+  </si>
+  <si>
+    <t>module10</t>
+  </si>
+  <si>
+    <t>condition1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition2</t>
+  </si>
+  <si>
+    <t>condition3</t>
+  </si>
+  <si>
+    <t>condition4</t>
+  </si>
+  <si>
+    <t>condition5</t>
+  </si>
+  <si>
+    <t>condition6</t>
+  </si>
+  <si>
+    <t>condition7</t>
+  </si>
+  <si>
+    <t>condition8</t>
+  </si>
+  <si>
+    <t>condition9</t>
+  </si>
+  <si>
+    <t>condition10</t>
+  </si>
+  <si>
+    <t>steps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steps2</t>
+  </si>
+  <si>
+    <t>steps3</t>
+  </si>
+  <si>
+    <t>steps4</t>
+  </si>
+  <si>
+    <t>steps5</t>
+  </si>
+  <si>
+    <t>steps6</t>
+  </si>
+  <si>
+    <t>steps7</t>
+  </si>
+  <si>
+    <t>steps8</t>
+  </si>
+  <si>
+    <t>steps9</t>
+  </si>
+  <si>
+    <t>steps10</t>
+  </si>
+  <si>
+    <t>expect1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect2</t>
+  </si>
+  <si>
+    <t>expect3</t>
+  </si>
+  <si>
+    <t>expect4</t>
+  </si>
+  <si>
+    <t>expect5</t>
+  </si>
+  <si>
+    <t>expect6</t>
+  </si>
+  <si>
+    <t>expect7</t>
+  </si>
+  <si>
+    <t>expect8</t>
+  </si>
+  <si>
+    <t>expect9</t>
+  </si>
+  <si>
+    <t>expect10</t>
+  </si>
+  <si>
+    <t>infomation1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECKABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENABLED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOCUSABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOCUSED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCROLLABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAYED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECTED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3-45-67
+34-24-54-78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Values
+电源操作值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECKED
+CLICKABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONG_CLICKABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Points
 坐标点</t>
-  </si>
-  <si>
-    <t>ContinueTimes
-持续时间</t>
-  </si>
-  <si>
-    <t>Count
-截图张数</t>
-  </si>
-  <si>
-    <t>ImageName
-截图名称</t>
-  </si>
-  <si>
-    <t>IsArea
-是否区域截图</t>
-  </si>
-  <si>
-    <t>Signals
-信号名与值</t>
-  </si>
-  <si>
-    <t>Locators
-元素定位符</t>
-  </si>
-  <si>
-    <t>Params
-函数参数</t>
-  </si>
-  <si>
-    <t>MessageId
-信号ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Positions
+比较区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SignalName
 信号名</t>
-  </si>
-  <si>
-    <t>ExpectValue
-期望值</t>
-  </si>
-  <si>
-    <t>Exact
-是否精确对比</t>
-  </si>
-  <si>
-    <t>ElementCompareType
-元素对比类型</t>
-  </si>
-  <si>
-    <t>Timeout
-超时时间</t>
-  </si>
-  <si>
-    <t>CompareType
-图片对比方式</t>
-  </si>
-  <si>
-    <t>TemplateLight
-模板亮图</t>
-  </si>
-  <si>
-    <t>TemplateDark
-模板暗图</t>
-  </si>
-  <si>
-    <t>Positions
-比较区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id=a,resourceId=b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Similarity
 相似度</t>
-  </si>
-  <si>
-    <t>IsGray
-是否灰度对比</t>
-  </si>
-  <si>
-    <t>Threshold
-灰度二值化阈值</t>
-  </si>
-  <si>
-    <t>Origin
-原始信息</t>
-  </si>
-  <si>
-    <t>Target
-目标信息</t>
-  </si>
-  <si>
-    <t>TestCaseType
-测试用例类型</t>
-  </si>
-  <si>
-    <t>ModuleName
-模块名</t>
-  </si>
-  <si>
-    <t>PreConditionDescription
-前置条件描述</t>
-  </si>
-  <si>
-    <t>StepsDescription
-操作步骤描述</t>
-  </si>
-  <si>
-    <t>ExpectDescription
-期望结果描述</t>
-  </si>
-  <si>
-    <t>BatteryType
-电源类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT6831</t>
-  </si>
-  <si>
-    <t>设置电压</t>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KONSTANTER</t>
-  </si>
-  <si>
-    <t>设置电流</t>
-  </si>
-  <si>
-    <t>调节电压</t>
-  </si>
-  <si>
-    <t>电压曲线</t>
-  </si>
-  <si>
-    <t>d:\a.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>test6</t>
-  </si>
-  <si>
-    <t>test7</t>
-  </si>
-  <si>
-    <t>test8</t>
-  </si>
-  <si>
-    <t>test9</t>
-  </si>
-  <si>
-    <t>test10</t>
-  </si>
-  <si>
-    <t>滑动</t>
-  </si>
-  <si>
-    <t>点击</t>
-  </si>
-  <si>
-    <t>长按</t>
-  </si>
-  <si>
-    <t>双击</t>
-  </si>
-  <si>
-    <t>上滑</t>
-  </si>
-  <si>
-    <t>下滑</t>
-  </si>
-  <si>
-    <t>左滑</t>
-  </si>
-  <si>
-    <t>右滑</t>
-  </si>
-  <si>
-    <t>开启</t>
-  </si>
-  <si>
-    <t>关闭</t>
-  </si>
-  <si>
-    <t>全开</t>
-  </si>
-  <si>
-    <t>全关</t>
-  </si>
-  <si>
-    <t>teset1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teset2</t>
-  </si>
-  <si>
-    <t>teset3</t>
-  </si>
-  <si>
-    <t>teset4</t>
-  </si>
-  <si>
-    <t>teset5</t>
-  </si>
-  <si>
-    <t>teset6</t>
-  </si>
-  <si>
-    <t>teset7</t>
-  </si>
-  <si>
-    <t>teset8</t>
-  </si>
-  <si>
-    <t>teset9</t>
-  </si>
-  <si>
-    <t>teset10</t>
-  </si>
-  <si>
-    <t>tttt1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tttt2</t>
-  </si>
-  <si>
-    <t>tttt3</t>
-  </si>
-  <si>
-    <t>tttt4</t>
-  </si>
-  <si>
-    <t>tttt5</t>
-  </si>
-  <si>
-    <t>tttt6</t>
-  </si>
-  <si>
-    <t>tttt7</t>
-  </si>
-  <si>
-    <t>tttt8</t>
-  </si>
-  <si>
-    <t>tttt9</t>
-  </si>
-  <si>
-    <t>tttt10</t>
-  </si>
-  <si>
-    <t>QNX</t>
-  </si>
-  <si>
-    <t>ANDROID</t>
-  </si>
-  <si>
-    <t>上滑到顶</t>
-  </si>
-  <si>
-    <t>下滑到底</t>
-  </si>
-  <si>
-    <t>左滑到头</t>
-  </si>
-  <si>
-    <t>右滑到头</t>
-  </si>
-  <si>
-    <t>teset11</t>
-  </si>
-  <si>
-    <t>teset12</t>
-  </si>
-  <si>
-    <t>tttt11</t>
-  </si>
-  <si>
-    <t>tttt12</t>
-  </si>
-  <si>
-    <t>12-15
-12-18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-152</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tttt1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oooo1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oooo2</t>
-  </si>
-  <si>
-    <t>oooo3</t>
-  </si>
-  <si>
-    <t>oooo4</t>
-  </si>
-  <si>
-    <t>oooo5</t>
-  </si>
-  <si>
-    <t>oooo6</t>
-  </si>
-  <si>
-    <t>oooo7</t>
-  </si>
-  <si>
-    <t>oooo8</t>
-  </si>
-  <si>
-    <t>oooo9</t>
-  </si>
-  <si>
-    <t>oooo10</t>
-  </si>
-  <si>
-    <t>test01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test02</t>
-  </si>
-  <si>
-    <t>test03</t>
-  </si>
-  <si>
-    <t>test04</t>
-  </si>
-  <si>
-    <t>test05</t>
-  </si>
-  <si>
-    <t>test06</t>
-  </si>
-  <si>
-    <t>test07</t>
-  </si>
-  <si>
-    <t>test08</t>
-  </si>
-  <si>
-    <t>test09</t>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a=0x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b=0x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d=4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e=5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h=6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i=7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa=9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb=19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc=12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test11</t>
-  </si>
-  <si>
-    <t>kkk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kkk2</t>
-  </si>
-  <si>
-    <t>kkk3</t>
-  </si>
-  <si>
-    <t>kkk4</t>
-  </si>
-  <si>
-    <t>kkk5</t>
-  </si>
-  <si>
-    <t>kkk6</t>
-  </si>
-  <si>
-    <t>kkk7</t>
-  </si>
-  <si>
-    <t>kkk8</t>
-  </si>
-  <si>
-    <t>kkk9</t>
-  </si>
-  <si>
-    <t>kkk10</t>
-  </si>
-  <si>
-    <t>kkk2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kkk11</t>
-  </si>
-  <si>
-    <t>text=c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id=a,resourceId=b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id=a,resourceId=b
-text=c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common2</t>
-  </si>
-  <si>
-    <t>common3</t>
-  </si>
-  <si>
-    <t>common4</t>
-  </si>
-  <si>
-    <t>common5</t>
-  </si>
-  <si>
-    <t>common6</t>
-  </si>
-  <si>
-    <t>common7</t>
-  </si>
-  <si>
-    <t>common8</t>
-  </si>
-  <si>
-    <t>common9</t>
-  </si>
-  <si>
-    <t>common10</t>
-  </si>
-  <si>
-    <t>a,b,c,d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x152</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x153</t>
-  </si>
-  <si>
-    <t>0x154</t>
-  </si>
-  <si>
-    <t>0x155</t>
-  </si>
-  <si>
-    <t>0x156</t>
-  </si>
-  <si>
-    <t>0x157</t>
-  </si>
-  <si>
-    <t>0x158</t>
-  </si>
-  <si>
-    <t>0x159</t>
-  </si>
-  <si>
-    <t>0x160</t>
-  </si>
-  <si>
-    <t>0x161</t>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iii</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jjj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kkk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppearCount
-出现次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comapre1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comapre2</t>
-  </si>
-  <si>
-    <t>comapre3</t>
-  </si>
-  <si>
-    <t>comapre4</t>
-  </si>
-  <si>
-    <t>comapre5</t>
-  </si>
-  <si>
-    <t>comapre6</t>
-  </si>
-  <si>
-    <t>comapre7</t>
-  </si>
-  <si>
-    <t>comapre8</t>
-  </si>
-  <si>
-    <t>comapre9</t>
-  </si>
-  <si>
-    <t>comapre10</t>
-  </si>
-  <si>
-    <t>存在</t>
-  </si>
-  <si>
-    <t>不存在</t>
-  </si>
-  <si>
-    <t>template_light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template_dark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2-3-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen_shot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亮图</t>
-  </si>
-  <si>
-    <t>暗图</t>
-  </si>
-  <si>
-    <t>闪烁图</t>
-  </si>
-  <si>
-    <t>compareaaaa1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>compareaaaa2</t>
-  </si>
-  <si>
-    <t>compareaaaa3</t>
-  </si>
-  <si>
-    <t>compareaaaa4</t>
-  </si>
-  <si>
-    <t>compareaaaa5</t>
-  </si>
-  <si>
-    <t>compareaaaa6</t>
-  </si>
-  <si>
-    <t>compareaaaa7</t>
-  </si>
-  <si>
-    <t>compareaaaa8</t>
-  </si>
-  <si>
-    <t>compareaaaa9</t>
-  </si>
-  <si>
-    <t>compareaaaa10</t>
-  </si>
-  <si>
-    <t>info1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>info2</t>
-  </si>
-  <si>
-    <t>info3</t>
-  </si>
-  <si>
-    <t>info4</t>
-  </si>
-  <si>
-    <t>info5</t>
-  </si>
-  <si>
-    <t>info6</t>
-  </si>
-  <si>
-    <t>info7</t>
-  </si>
-  <si>
-    <t>info8</t>
-  </si>
-  <si>
-    <t>info9</t>
-  </si>
-  <si>
-    <t>info10</t>
-  </si>
-  <si>
-    <t>infomation1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infomation2</t>
-  </si>
-  <si>
-    <t>infomation3</t>
-  </si>
-  <si>
-    <t>infomation4</t>
-  </si>
-  <si>
-    <t>infomation5</t>
-  </si>
-  <si>
-    <t>infomation6</t>
-  </si>
-  <si>
-    <t>infomation7</t>
-  </si>
-  <si>
-    <t>infomation8</t>
-  </si>
-  <si>
-    <t>infomation9</t>
-  </si>
-  <si>
-    <t>infomation10</t>
-  </si>
-  <si>
-    <t>kkk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementAttributes
-元素属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcase1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcase2</t>
-  </si>
-  <si>
-    <t>testcase3</t>
-  </si>
-  <si>
-    <t>testcase4</t>
-  </si>
-  <si>
-    <t>testcase5</t>
-  </si>
-  <si>
-    <t>testcase6</t>
-  </si>
-  <si>
-    <t>testcase7</t>
-  </si>
-  <si>
-    <t>testcase8</t>
-  </si>
-  <si>
-    <t>testcase9</t>
-  </si>
-  <si>
-    <t>testcase10</t>
-  </si>
-  <si>
-    <t>仪表</t>
-  </si>
-  <si>
-    <t>中控</t>
-  </si>
-  <si>
-    <t>空调屏</t>
-  </si>
-  <si>
-    <t>module1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module2</t>
-  </si>
-  <si>
-    <t>module3</t>
-  </si>
-  <si>
-    <t>module4</t>
-  </si>
-  <si>
-    <t>module5</t>
-  </si>
-  <si>
-    <t>module6</t>
-  </si>
-  <si>
-    <t>module7</t>
-  </si>
-  <si>
-    <t>module8</t>
-  </si>
-  <si>
-    <t>module9</t>
-  </si>
-  <si>
-    <t>module10</t>
-  </si>
-  <si>
-    <t>condition1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition2</t>
-  </si>
-  <si>
-    <t>condition3</t>
-  </si>
-  <si>
-    <t>condition4</t>
-  </si>
-  <si>
-    <t>condition5</t>
-  </si>
-  <si>
-    <t>condition6</t>
-  </si>
-  <si>
-    <t>condition7</t>
-  </si>
-  <si>
-    <t>condition8</t>
-  </si>
-  <si>
-    <t>condition9</t>
-  </si>
-  <si>
-    <t>condition10</t>
-  </si>
-  <si>
-    <t>steps1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>steps2</t>
-  </si>
-  <si>
-    <t>steps3</t>
-  </si>
-  <si>
-    <t>steps4</t>
-  </si>
-  <si>
-    <t>steps5</t>
-  </si>
-  <si>
-    <t>steps6</t>
-  </si>
-  <si>
-    <t>steps7</t>
-  </si>
-  <si>
-    <t>steps8</t>
-  </si>
-  <si>
-    <t>steps9</t>
-  </si>
-  <si>
-    <t>steps10</t>
-  </si>
-  <si>
-    <t>expect1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect2</t>
-  </si>
-  <si>
-    <t>expect3</t>
-  </si>
-  <si>
-    <t>expect4</t>
-  </si>
-  <si>
-    <t>expect5</t>
-  </si>
-  <si>
-    <t>expect6</t>
-  </si>
-  <si>
-    <t>expect7</t>
-  </si>
-  <si>
-    <t>expect8</t>
-  </si>
-  <si>
-    <t>expect9</t>
-  </si>
-  <si>
-    <t>expect10</t>
-  </si>
-  <si>
-    <t>infomation1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHECKABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENABLED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOCUSABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOCUSED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCROLLABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISPLAYED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECTED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-3-45-67
-34-24-54-78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Values
-电源操作值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHECKED
-CLICKABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LONG_CLICKABLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1434,7 +1438,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1460,13 +1464,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1480,16 +1484,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1">
         <v>12</v>
@@ -1506,16 +1510,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1">
         <v>13</v>
@@ -1532,16 +1536,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F4" s="1">
         <v>14</v>
@@ -1558,23 +1562,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1582,16 +1586,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F6" s="1">
         <v>14</v>
@@ -1608,16 +1612,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1">
         <v>14</v>
@@ -1634,16 +1638,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F8" s="1">
         <v>14</v>
@@ -1660,16 +1664,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1">
         <v>14</v>
@@ -1686,16 +1690,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F10" s="1">
         <v>14</v>
@@ -1712,16 +1716,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F11" s="1">
         <v>14</v>
@@ -1776,13 +1780,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1790,16 +1794,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1810,16 +1814,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
@@ -1830,16 +1834,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -1850,16 +1854,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -1870,16 +1874,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -1890,16 +1894,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -1910,16 +1914,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -1930,16 +1934,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -1950,16 +1954,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -1970,16 +1974,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -2000,8 +2004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2029,28 +2033,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2058,31 +2062,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I2" s="1">
         <v>99</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K2" s="1">
         <v>240</v>
@@ -2093,31 +2097,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I3" s="1">
         <v>90</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K3" s="1">
         <v>240</v>
@@ -2128,31 +2132,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I4" s="1">
         <v>90</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K4" s="1">
         <v>240</v>
@@ -2163,31 +2167,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I5" s="1">
         <v>90</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K5" s="1">
         <v>240</v>
@@ -2198,31 +2202,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I6" s="1">
         <v>90</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K6" s="1">
         <v>240</v>
@@ -2233,31 +2237,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I7" s="1">
         <v>90</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K7" s="1">
         <v>240</v>
@@ -2268,31 +2272,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I8" s="1">
         <v>90</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K8" s="1">
         <v>240</v>
@@ -2303,31 +2307,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I9" s="1">
         <v>90</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K9" s="1">
         <v>240</v>
@@ -2338,31 +2342,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I10" s="1">
         <v>90</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K10" s="1">
         <v>240</v>
@@ -2373,31 +2377,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I11" s="1">
         <v>90</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K11" s="1">
         <v>240</v>
@@ -2441,10 +2445,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2452,16 +2456,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2469,16 +2473,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2486,16 +2490,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2503,16 +2507,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2520,16 +2524,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2537,16 +2541,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2554,16 +2558,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2571,16 +2575,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2588,16 +2592,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2605,16 +2609,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2627,8 +2631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2654,7 +2658,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2662,16 +2666,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -2679,16 +2683,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2696,16 +2700,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2713,16 +2717,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2730,16 +2734,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2747,16 +2751,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2764,16 +2768,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2781,16 +2785,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2798,16 +2802,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2815,16 +2819,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -2863,19 +2867,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2883,25 +2887,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2909,25 +2913,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2935,25 +2939,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2961,25 +2965,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2987,25 +2991,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3013,25 +3017,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3039,25 +3043,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3065,25 +3069,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3091,25 +3095,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3117,25 +3121,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -3154,7 +3158,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3191,16 +3195,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -3211,16 +3215,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -3231,16 +3235,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -3251,16 +3255,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -3271,16 +3275,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -3291,16 +3295,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -3311,16 +3315,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -3331,16 +3335,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F9" s="1">
         <v>8</v>
@@ -3396,13 +3400,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -3413,13 +3417,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -3430,13 +3434,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -3447,13 +3451,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -3464,13 +3468,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -3481,13 +3485,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -3498,13 +3502,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -3515,13 +3519,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -3532,13 +3536,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -3549,13 +3553,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
@@ -3577,7 +3581,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3612,10 +3616,10 @@
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -3623,22 +3627,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -3649,22 +3653,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
@@ -3675,22 +3679,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H4" s="1">
         <v>0.5</v>
@@ -3701,22 +3705,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H5" s="1">
         <v>0.5</v>
@@ -3727,22 +3731,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H6" s="1">
         <v>0.5</v>
@@ -3753,22 +3757,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H7" s="1">
         <v>0.5</v>
@@ -3779,22 +3783,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H8" s="1">
         <v>0.5</v>
@@ -3805,22 +3809,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H9" s="1">
         <v>0.5</v>
@@ -3831,22 +3835,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="F10" s="1">
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H10" s="1">
         <v>0.5</v>
@@ -3857,22 +3861,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H11" s="1">
         <v>0.5</v>
@@ -3883,22 +3887,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="F12" s="1">
         <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H12" s="1">
         <v>0.5</v>
@@ -3909,22 +3913,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="F13" s="1">
         <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
@@ -3976,13 +3980,13 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3990,22 +3994,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4013,22 +4017,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4036,22 +4040,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4059,22 +4063,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4082,22 +4086,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4105,22 +4109,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4128,22 +4132,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4151,22 +4155,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E9" s="1">
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4174,22 +4178,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4197,22 +4201,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4253,7 +4257,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4261,13 +4265,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4275,13 +4279,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4289,13 +4293,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4303,13 +4307,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4317,13 +4321,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4331,13 +4335,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4345,13 +4349,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4359,13 +4363,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4373,13 +4377,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4387,13 +4391,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4407,7 +4411,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4429,7 +4433,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4437,13 +4441,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>153</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4451,13 +4455,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4465,13 +4469,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4479,13 +4483,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4493,13 +4497,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4507,13 +4511,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4521,13 +4525,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4535,13 +4539,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4549,13 +4553,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4563,13 +4567,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4605,7 +4609,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4613,13 +4617,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4627,13 +4631,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4641,13 +4645,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4655,13 +4659,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4669,13 +4673,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4683,13 +4687,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4697,13 +4701,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4711,13 +4715,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4725,13 +4729,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4739,13 +4743,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4759,7 +4763,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4783,19 +4787,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -4803,16 +4807,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -4821,7 +4825,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -4829,16 +4833,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -4847,7 +4851,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -4855,16 +4859,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -4873,7 +4877,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -4881,16 +4885,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -4899,7 +4903,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -4907,16 +4911,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -4925,7 +4929,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -4933,16 +4937,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -4951,7 +4955,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -4959,16 +4963,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -4977,7 +4981,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -4985,16 +4989,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -5003,7 +5007,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5011,16 +5015,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -5029,7 +5033,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -5037,16 +5041,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -5055,7 +5059,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
